--- a/biology/Zoologie/Hocco_d'Albert/Hocco_d'Albert.xlsx
+++ b/biology/Zoologie/Hocco_d'Albert/Hocco_d'Albert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hocco_d%27Albert</t>
+          <t>Hocco_d'Albert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crax alberti
 L’Hocco d'Albert (Crax alberti)  est une espèce d'oiseau de la famille des Cracidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hocco_d%27Albert</t>
+          <t>Hocco_d'Albert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 83 à 90 cm de longueur. Il y a un dimorphisme sexuel.
 Le mâle a son plumage d'un noir bleuté brillant avec le ventre et le bout de la queue blancs. Il a une huppe développée noire. Le bec court, crochu, aplati transversalement est bleu, les pattes sont rouges.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hocco_d%27Albert</t>
+          <t>Hocco_d'Albert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique du nord de la Colombie entre le pied de la Sierra Nevada de Santa Marta et la partie moyenne et basse du fleuve Magdalena.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hocco_d%27Albert</t>
+          <t>Hocco_d'Albert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts humides tropicales et subtropicales en plaine.
 Il est menacé par la disparition de son habitat.
